--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_EQ组.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>EQ-681</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1297,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1514,7 +1518,9 @@
       <c r="R3" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="59"/>
+      <c r="S3" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="66"/>
@@ -1574,7 +1580,9 @@
       <c r="R4" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="59"/>
+      <c r="S4" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="T4" s="59"/>
       <c r="U4" s="59"/>
       <c r="V4" s="59"/>

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_EQ组.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -310,6 +310,71 @@
   </si>
   <si>
     <t>EQ-681</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.5</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterpc</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>sysconfig.sms_send_num = 100 sysconfig.sms_black_num = 105</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'tong</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'xin</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.properties</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据产品要求加大短信数量</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan'xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'liang</t>
+    </rPh>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -329,6 +394,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -336,6 +402,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -343,12 +410,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -356,6 +425,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -363,12 +433,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -376,35 +448,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -412,6 +490,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -419,28 +498,31 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1301,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -5662,7 +5744,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6289,22 +6371,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
     <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
     <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6340,7 +6424,7 @@
       <c r="L2" s="83"/>
       <c r="M2" s="84"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -6382,18 +6466,42 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
